--- a/data/264-269_netwash/MED_ETNP_NT06_SPIDER_58/269-proteins.xlsx
+++ b/data/264-269_netwash/MED_ETNP_NT06_SPIDER_58/269-proteins.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/data/264-269_netwash/MED_ETNP_NT06_SPIDER_58/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1A731C-BF48-6B4F-BB54-BAE917C21544}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CEA666-C775-F442-8100-D1BE6639D1CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="3180" windowWidth="22640" windowHeight="11200"/>
+    <workbookView xWindow="3900" yWindow="7660" windowWidth="22640" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="269-proteins" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -1379,7 +1379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -2226,12 +2226,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13271,7 +13271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
